--- a/Excel_Files/BankStatement.xlsx
+++ b/Excel_Files/BankStatement.xlsx
@@ -12042,7 +12042,9 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>44152</v>
+      </c>
       <c r="C5" t="n">
         <v>39225</v>
       </c>
@@ -12081,7 +12083,9 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30152</v>
+      </c>
       <c r="C6" t="n">
         <v>39225</v>
       </c>
@@ -12120,7 +12124,9 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>27152</v>
+      </c>
       <c r="C7" t="n">
         <v>39225</v>
       </c>
@@ -12159,7 +12165,9 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>27152</v>
+      </c>
       <c r="C8" t="n">
         <v>39225</v>
       </c>
@@ -12198,7 +12206,9 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>27152</v>
+      </c>
       <c r="C9" t="n">
         <v>39225</v>
       </c>
@@ -12237,7 +12247,9 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>27152</v>
+      </c>
       <c r="C10" t="n">
         <v>39225</v>
       </c>
@@ -12276,7 +12288,9 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>27152</v>
+      </c>
       <c r="C11" t="n">
         <v>38775</v>
       </c>
@@ -12315,7 +12329,9 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>26852</v>
+      </c>
       <c r="C12" t="n">
         <v>28775</v>
       </c>
@@ -12715,7 +12731,9 @@
       <c r="L21" t="n">
         <v>54949</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -12754,7 +12772,9 @@
       <c r="L22" t="n">
         <v>57928</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -12793,7 +12813,9 @@
       <c r="L23" t="n">
         <v>57008</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -12832,7 +12854,9 @@
       <c r="L24" t="n">
         <v>57008</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -12871,7 +12895,9 @@
       <c r="L25" t="n">
         <v>37013</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -12910,7 +12936,9 @@
       <c r="L26" t="n">
         <v>38710</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -12949,7 +12977,9 @@
       <c r="L27" t="n">
         <v>38630</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -12988,7 +13018,9 @@
       <c r="L28" t="n">
         <v>38630</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13027,7 +13059,9 @@
       <c r="L29" t="n">
         <v>79353</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -13064,7 +13098,9 @@
         <v>37844</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -13101,7 +13137,9 @@
         <v>37844</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -13130,7 +13168,9 @@
         <v>76920</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13139,7 +13179,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456291</v>
+        <v>693207</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -13172,7 +13212,7 @@
         <v>1157736</v>
       </c>
       <c r="M33" t="n">
-        <v>848002</v>
+        <v>1266382</v>
       </c>
     </row>
   </sheetData>
@@ -13382,7 +13422,9 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>44152</v>
+      </c>
       <c r="C5" t="n">
         <v>39225</v>
       </c>
@@ -13421,7 +13463,9 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30152</v>
+      </c>
       <c r="C6" t="n">
         <v>39225</v>
       </c>
@@ -13460,7 +13504,9 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>27152</v>
+      </c>
       <c r="C7" t="n">
         <v>39225</v>
       </c>
@@ -13499,7 +13545,9 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>27152</v>
+      </c>
       <c r="C8" t="n">
         <v>39225</v>
       </c>
@@ -13538,7 +13586,9 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>27152</v>
+      </c>
       <c r="C9" t="n">
         <v>39225</v>
       </c>
@@ -13577,7 +13627,9 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>27152</v>
+      </c>
       <c r="C10" t="n">
         <v>39225</v>
       </c>
@@ -13616,7 +13668,9 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>27152</v>
+      </c>
       <c r="C11" t="n">
         <v>38775</v>
       </c>
@@ -13655,7 +13709,9 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>26852</v>
+      </c>
       <c r="C12" t="n">
         <v>28775</v>
       </c>
@@ -14055,7 +14111,9 @@
       <c r="L21" t="n">
         <v>54949</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -14094,7 +14152,9 @@
       <c r="L22" t="n">
         <v>57928</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -14133,7 +14193,9 @@
       <c r="L23" t="n">
         <v>57008</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -14172,7 +14234,9 @@
       <c r="L24" t="n">
         <v>57008</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -14211,7 +14275,9 @@
       <c r="L25" t="n">
         <v>37013</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -14250,7 +14316,9 @@
       <c r="L26" t="n">
         <v>38710</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -14289,7 +14357,9 @@
       <c r="L27" t="n">
         <v>38630</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -14328,7 +14398,9 @@
       <c r="L28" t="n">
         <v>38630</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -14367,7 +14439,9 @@
       <c r="L29" t="n">
         <v>79353</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -14404,7 +14478,9 @@
         <v>37844</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -14441,7 +14517,9 @@
         <v>37844</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -14470,7 +14548,9 @@
         <v>76920</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>34865</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14479,7 +14559,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456291</v>
+        <v>693207</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -14512,7 +14592,7 @@
         <v>1157736</v>
       </c>
       <c r="M33" t="n">
-        <v>848002</v>
+        <v>1266382</v>
       </c>
     </row>
     <row r="34">
@@ -14522,7 +14602,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24015.32</v>
+        <v>25674.33</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -14555,7 +14635,7 @@
         <v>41347.71</v>
       </c>
       <c r="M34" t="n">
-        <v>44631.68</v>
+        <v>40851.03</v>
       </c>
     </row>
   </sheetData>
@@ -14797,7 +14877,9 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>44152</v>
+      </c>
       <c r="C5" t="n">
         <v>39225</v>
       </c>
@@ -14840,7 +14922,9 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30152</v>
+      </c>
       <c r="C6" t="n">
         <v>39225</v>
       </c>
@@ -14883,7 +14967,9 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>27152</v>
+      </c>
       <c r="C7" t="n">
         <v>39225</v>
       </c>
@@ -14926,7 +15012,9 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>27152</v>
+      </c>
       <c r="C8" t="n">
         <v>39225</v>
       </c>
@@ -14969,7 +15057,9 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>27152</v>
+      </c>
       <c r="C9" t="n">
         <v>39225</v>
       </c>
@@ -15012,7 +15102,9 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>27152</v>
+      </c>
       <c r="C10" t="n">
         <v>39225</v>
       </c>
@@ -15055,7 +15147,9 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>27152</v>
+      </c>
       <c r="C11" t="n">
         <v>38775</v>
       </c>
@@ -15098,7 +15192,9 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>26852</v>
+      </c>
       <c r="C12" t="n">
         <v>28775</v>
       </c>
@@ -15537,7 +15633,9 @@
       <c r="O21" t="n">
         <v>54949</v>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -15580,7 +15678,9 @@
       <c r="O22" t="n">
         <v>57928</v>
       </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -15623,7 +15723,9 @@
       <c r="O23" t="n">
         <v>57008</v>
       </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -15666,7 +15768,9 @@
       <c r="O24" t="n">
         <v>57008</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -15709,7 +15813,9 @@
       <c r="O25" t="n">
         <v>37013</v>
       </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -15752,7 +15858,9 @@
       <c r="O26" t="n">
         <v>38710</v>
       </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -15795,7 +15903,9 @@
       <c r="O27" t="n">
         <v>38630</v>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -15838,7 +15948,9 @@
       <c r="O28" t="n">
         <v>38630</v>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -15881,7 +15993,9 @@
       <c r="O29" t="n">
         <v>79353</v>
       </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -15922,7 +16036,9 @@
         <v>37844</v>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -15963,7 +16079,9 @@
         <v>37844</v>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -15996,7 +16114,9 @@
         <v>76920</v>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>34865</v>
+      </c>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -16006,7 +16126,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456291</v>
+        <v>693207</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -16015,7 +16135,7 @@
         <v>1700763</v>
       </c>
       <c r="E33" t="n">
-        <v>3209415</v>
+        <v>3446331</v>
       </c>
       <c r="F33" t="n">
         <v>4295173</v>
@@ -16048,10 +16168,10 @@
         <v>1157736</v>
       </c>
       <c r="P33" t="n">
-        <v>848002</v>
+        <v>1266382</v>
       </c>
       <c r="Q33" t="n">
-        <v>3051681</v>
+        <v>3470061</v>
       </c>
     </row>
     <row r="34">
@@ -16061,7 +16181,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24015.32</v>
+        <v>25674.33</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -16070,7 +16190,7 @@
         <v>56692.1</v>
       </c>
       <c r="E34" t="n">
-        <v>114654.5448217317</v>
+        <v>116313.5623655914</v>
       </c>
       <c r="F34" t="n">
         <v>138553.97</v>
@@ -16103,10 +16223,10 @@
         <v>41347.71</v>
       </c>
       <c r="P34" t="n">
-        <v>44631.68</v>
+        <v>40851.03</v>
       </c>
       <c r="Q34" t="n">
-        <v>119719.4952704341</v>
+        <v>115938.8433179724</v>
       </c>
     </row>
   </sheetData>
@@ -16332,7 +16452,9 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>44152</v>
+      </c>
       <c r="C5" t="n">
         <v>39225</v>
       </c>
@@ -16373,7 +16495,9 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30152</v>
+      </c>
       <c r="C6" t="n">
         <v>39225</v>
       </c>
@@ -16414,7 +16538,9 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>27152</v>
+      </c>
       <c r="C7" t="n">
         <v>39225</v>
       </c>
@@ -16455,7 +16581,9 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>27152</v>
+      </c>
       <c r="C8" t="n">
         <v>39225</v>
       </c>
@@ -16496,7 +16624,9 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>27152</v>
+      </c>
       <c r="C9" t="n">
         <v>39225</v>
       </c>
@@ -16537,7 +16667,9 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>27152</v>
+      </c>
       <c r="C10" t="n">
         <v>39225</v>
       </c>
@@ -16578,7 +16710,9 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>27152</v>
+      </c>
       <c r="C11" t="n">
         <v>38775</v>
       </c>
@@ -16619,7 +16753,9 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>26852</v>
+      </c>
       <c r="C12" t="n">
         <v>28775</v>
       </c>
@@ -17038,7 +17174,9 @@
       <c r="M21" t="n">
         <v>54949</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>34865</v>
+      </c>
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -17079,7 +17217,9 @@
       <c r="M22" t="n">
         <v>57928</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>34865</v>
+      </c>
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -17120,7 +17260,9 @@
       <c r="M23" t="n">
         <v>57008</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>34865</v>
+      </c>
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -17161,7 +17303,9 @@
       <c r="M24" t="n">
         <v>57008</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>34865</v>
+      </c>
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -17202,7 +17346,9 @@
       <c r="M25" t="n">
         <v>37013</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>34865</v>
+      </c>
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -17243,7 +17389,9 @@
       <c r="M26" t="n">
         <v>38710</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>34865</v>
+      </c>
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -17284,7 +17432,9 @@
       <c r="M27" t="n">
         <v>38630</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>34865</v>
+      </c>
       <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -17325,7 +17475,9 @@
       <c r="M28" t="n">
         <v>38630</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>34865</v>
+      </c>
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -17366,7 +17518,9 @@
       <c r="M29" t="n">
         <v>79353</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>34865</v>
+      </c>
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -17405,7 +17559,9 @@
         <v>37844</v>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>34865</v>
+      </c>
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -17444,7 +17600,9 @@
         <v>37844</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>34865</v>
+      </c>
       <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -17475,7 +17633,9 @@
         <v>76920</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>34865</v>
+      </c>
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -17485,7 +17645,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456291</v>
+        <v>693207</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -17503,7 +17663,7 @@
         <v>135614</v>
       </c>
       <c r="H33" t="n">
-        <v>10199749</v>
+        <v>10436665</v>
       </c>
       <c r="I33" t="n">
         <v>1230338</v>
@@ -17521,10 +17681,10 @@
         <v>1157736</v>
       </c>
       <c r="N33" t="n">
-        <v>848002</v>
+        <v>1266382</v>
       </c>
       <c r="O33" t="n">
-        <v>8590128</v>
+        <v>9008508</v>
       </c>
     </row>
     <row r="34">
@@ -17534,7 +17694,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24015.32</v>
+        <v>25674.33</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -17552,7 +17712,7 @@
         <v>4520.47</v>
       </c>
       <c r="H34" t="n">
-        <v>340295.0114883984</v>
+        <v>341954.029032258</v>
       </c>
       <c r="I34" t="n">
         <v>39688.32</v>
@@ -17570,10 +17730,10 @@
         <v>41347.71</v>
       </c>
       <c r="N34" t="n">
-        <v>44631.68</v>
+        <v>40851.03</v>
       </c>
       <c r="O34" t="n">
-        <v>300549.1544102191</v>
+        <v>296768.5024577573</v>
       </c>
     </row>
   </sheetData>
@@ -17791,7 +17951,9 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>44152</v>
+      </c>
       <c r="C5" t="n">
         <v>39225</v>
       </c>
@@ -17831,7 +17993,9 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30152</v>
+      </c>
       <c r="C6" t="n">
         <v>39225</v>
       </c>
@@ -17871,7 +18035,9 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>27152</v>
+      </c>
       <c r="C7" t="n">
         <v>39225</v>
       </c>
@@ -17911,7 +18077,9 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>27152</v>
+      </c>
       <c r="C8" t="n">
         <v>39225</v>
       </c>
@@ -17951,7 +18119,9 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>27152</v>
+      </c>
       <c r="C9" t="n">
         <v>39225</v>
       </c>
@@ -17991,7 +18161,9 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>27152</v>
+      </c>
       <c r="C10" t="n">
         <v>39225</v>
       </c>
@@ -18031,7 +18203,9 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>27152</v>
+      </c>
       <c r="C11" t="n">
         <v>38775</v>
       </c>
@@ -18071,7 +18245,9 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>26852</v>
+      </c>
       <c r="C12" t="n">
         <v>28775</v>
       </c>
@@ -18480,7 +18656,9 @@
       <c r="L21" t="n">
         <v>54949</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>34865</v>
+      </c>
       <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -18520,7 +18698,9 @@
       <c r="L22" t="n">
         <v>57928</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>34865</v>
+      </c>
       <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -18560,7 +18740,9 @@
       <c r="L23" t="n">
         <v>57008</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>34865</v>
+      </c>
       <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -18600,7 +18782,9 @@
       <c r="L24" t="n">
         <v>57008</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>34865</v>
+      </c>
       <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -18640,7 +18824,9 @@
       <c r="L25" t="n">
         <v>37013</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>34865</v>
+      </c>
       <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -18680,7 +18866,9 @@
       <c r="L26" t="n">
         <v>38710</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>34865</v>
+      </c>
       <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -18720,7 +18908,9 @@
       <c r="L27" t="n">
         <v>38630</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>34865</v>
+      </c>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -18760,7 +18950,9 @@
       <c r="L28" t="n">
         <v>38630</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>34865</v>
+      </c>
       <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -18800,7 +18992,9 @@
       <c r="L29" t="n">
         <v>79353</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>34865</v>
+      </c>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -18838,7 +19032,9 @@
         <v>37844</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>34865</v>
+      </c>
       <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -18876,7 +19072,9 @@
         <v>37844</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>34865</v>
+      </c>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -18906,7 +19104,9 @@
         <v>76920</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>34865</v>
+      </c>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -18916,7 +19116,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456291</v>
+        <v>693207</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -18949,10 +19149,10 @@
         <v>1157736</v>
       </c>
       <c r="M33" t="n">
-        <v>848002</v>
+        <v>1266382</v>
       </c>
       <c r="N33" t="n">
-        <v>18789877</v>
+        <v>19445173</v>
       </c>
     </row>
     <row r="34">
@@ -18962,7 +19162,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24015.32</v>
+        <v>25674.33</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -18995,10 +19195,10 @@
         <v>41347.71</v>
       </c>
       <c r="M34" t="n">
-        <v>44631.68</v>
+        <v>40851.03</v>
       </c>
       <c r="N34" t="n">
-        <v>640844.1658986176</v>
+        <v>638722.5314900154</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/BankStatement.xlsx
+++ b/Excel_Files/BankStatement.xlsx
@@ -11925,7 +11925,9 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C2" t="n">
         <v>40955</v>
       </c>
@@ -11964,7 +11966,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C3" t="n">
         <v>40955</v>
       </c>
@@ -11995,15 +11999,15 @@
       <c r="L3" t="n">
         <v>69790</v>
       </c>
-      <c r="M3" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C4" t="n">
         <v>40955</v>
       </c>
@@ -12034,9 +12038,7 @@
       <c r="L4" t="n">
         <v>69460</v>
       </c>
-      <c r="M4" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -12075,9 +12077,7 @@
       <c r="L5" t="n">
         <v>69460</v>
       </c>
-      <c r="M5" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -12116,9 +12116,7 @@
       <c r="L6" t="n">
         <v>23458</v>
       </c>
-      <c r="M6" t="n">
-        <v>77078</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -12157,9 +12155,7 @@
       <c r="L7" t="n">
         <v>23458</v>
       </c>
-      <c r="M7" t="n">
-        <v>27084</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -12198,9 +12194,7 @@
       <c r="L8" t="n">
         <v>23458</v>
       </c>
-      <c r="M8" t="n">
-        <v>27084</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -12239,9 +12233,7 @@
       <c r="L9" t="n">
         <v>23458</v>
       </c>
-      <c r="M9" t="n">
-        <v>36625</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -12280,9 +12272,7 @@
       <c r="L10" t="n">
         <v>24194</v>
       </c>
-      <c r="M10" t="n">
-        <v>31525</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -12321,9 +12311,7 @@
       <c r="L11" t="n">
         <v>21370</v>
       </c>
-      <c r="M11" t="n">
-        <v>30289</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -12362,9 +12350,7 @@
       <c r="L12" t="n">
         <v>21370</v>
       </c>
-      <c r="M12" t="n">
-        <v>29625</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -12403,9 +12389,7 @@
       <c r="L13" t="n">
         <v>19370</v>
       </c>
-      <c r="M13" t="n">
-        <v>29465</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -12444,9 +12428,7 @@
       <c r="L14" t="n">
         <v>20270</v>
       </c>
-      <c r="M14" t="n">
-        <v>32865</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -12485,9 +12467,7 @@
       <c r="L15" t="n">
         <v>25299</v>
       </c>
-      <c r="M15" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -12526,9 +12506,7 @@
       <c r="L16" t="n">
         <v>25299</v>
       </c>
-      <c r="M16" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12567,9 +12545,7 @@
       <c r="L17" t="n">
         <v>26736</v>
       </c>
-      <c r="M17" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -12608,9 +12584,7 @@
       <c r="L18" t="n">
         <v>24999</v>
       </c>
-      <c r="M18" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -12649,9 +12623,7 @@
       <c r="L19" t="n">
         <v>54859</v>
       </c>
-      <c r="M19" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -12690,9 +12662,7 @@
       <c r="L20" t="n">
         <v>55409</v>
       </c>
-      <c r="M20" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -12731,9 +12701,7 @@
       <c r="L21" t="n">
         <v>54949</v>
       </c>
-      <c r="M21" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -12772,9 +12740,7 @@
       <c r="L22" t="n">
         <v>57928</v>
       </c>
-      <c r="M22" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -12813,9 +12779,7 @@
       <c r="L23" t="n">
         <v>57008</v>
       </c>
-      <c r="M23" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -12854,9 +12818,7 @@
       <c r="L24" t="n">
         <v>57008</v>
       </c>
-      <c r="M24" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -12895,9 +12857,7 @@
       <c r="L25" t="n">
         <v>37013</v>
       </c>
-      <c r="M25" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -12936,9 +12896,7 @@
       <c r="L26" t="n">
         <v>38710</v>
       </c>
-      <c r="M26" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -12977,9 +12935,7 @@
       <c r="L27" t="n">
         <v>38630</v>
       </c>
-      <c r="M27" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -13018,9 +12974,7 @@
       <c r="L28" t="n">
         <v>38630</v>
       </c>
-      <c r="M28" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13059,9 +13013,7 @@
       <c r="L29" t="n">
         <v>79353</v>
       </c>
-      <c r="M29" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -13098,9 +13050,7 @@
         <v>37844</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -13137,9 +13087,7 @@
         <v>37844</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -13168,9 +13116,7 @@
         <v>76920</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13179,7 +13125,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693207</v>
+        <v>1127465.55</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -13212,7 +13158,7 @@
         <v>1157736</v>
       </c>
       <c r="M33" t="n">
-        <v>1266382</v>
+        <v>78693</v>
       </c>
     </row>
   </sheetData>
@@ -13305,7 +13251,9 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C2" t="n">
         <v>40955</v>
       </c>
@@ -13344,7 +13292,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C3" t="n">
         <v>40955</v>
       </c>
@@ -13375,15 +13325,15 @@
       <c r="L3" t="n">
         <v>69790</v>
       </c>
-      <c r="M3" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C4" t="n">
         <v>40955</v>
       </c>
@@ -13414,9 +13364,7 @@
       <c r="L4" t="n">
         <v>69460</v>
       </c>
-      <c r="M4" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -13455,9 +13403,7 @@
       <c r="L5" t="n">
         <v>69460</v>
       </c>
-      <c r="M5" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -13496,9 +13442,7 @@
       <c r="L6" t="n">
         <v>23458</v>
       </c>
-      <c r="M6" t="n">
-        <v>77078</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -13537,9 +13481,7 @@
       <c r="L7" t="n">
         <v>23458</v>
       </c>
-      <c r="M7" t="n">
-        <v>27084</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -13578,9 +13520,7 @@
       <c r="L8" t="n">
         <v>23458</v>
       </c>
-      <c r="M8" t="n">
-        <v>27084</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -13619,9 +13559,7 @@
       <c r="L9" t="n">
         <v>23458</v>
       </c>
-      <c r="M9" t="n">
-        <v>36625</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -13660,9 +13598,7 @@
       <c r="L10" t="n">
         <v>24194</v>
       </c>
-      <c r="M10" t="n">
-        <v>31525</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -13701,9 +13637,7 @@
       <c r="L11" t="n">
         <v>21370</v>
       </c>
-      <c r="M11" t="n">
-        <v>30289</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -13742,9 +13676,7 @@
       <c r="L12" t="n">
         <v>21370</v>
       </c>
-      <c r="M12" t="n">
-        <v>29625</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -13783,9 +13715,7 @@
       <c r="L13" t="n">
         <v>19370</v>
       </c>
-      <c r="M13" t="n">
-        <v>29465</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -13824,9 +13754,7 @@
       <c r="L14" t="n">
         <v>20270</v>
       </c>
-      <c r="M14" t="n">
-        <v>32865</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -13865,9 +13793,7 @@
       <c r="L15" t="n">
         <v>25299</v>
       </c>
-      <c r="M15" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -13906,9 +13832,7 @@
       <c r="L16" t="n">
         <v>25299</v>
       </c>
-      <c r="M16" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -13947,9 +13871,7 @@
       <c r="L17" t="n">
         <v>26736</v>
       </c>
-      <c r="M17" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13988,9 +13910,7 @@
       <c r="L18" t="n">
         <v>24999</v>
       </c>
-      <c r="M18" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -14029,9 +13949,7 @@
       <c r="L19" t="n">
         <v>54859</v>
       </c>
-      <c r="M19" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14070,9 +13988,7 @@
       <c r="L20" t="n">
         <v>55409</v>
       </c>
-      <c r="M20" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -14111,9 +14027,7 @@
       <c r="L21" t="n">
         <v>54949</v>
       </c>
-      <c r="M21" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -14152,9 +14066,7 @@
       <c r="L22" t="n">
         <v>57928</v>
       </c>
-      <c r="M22" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -14193,9 +14105,7 @@
       <c r="L23" t="n">
         <v>57008</v>
       </c>
-      <c r="M23" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -14234,9 +14144,7 @@
       <c r="L24" t="n">
         <v>57008</v>
       </c>
-      <c r="M24" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -14275,9 +14183,7 @@
       <c r="L25" t="n">
         <v>37013</v>
       </c>
-      <c r="M25" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -14316,9 +14222,7 @@
       <c r="L26" t="n">
         <v>38710</v>
       </c>
-      <c r="M26" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -14357,9 +14261,7 @@
       <c r="L27" t="n">
         <v>38630</v>
       </c>
-      <c r="M27" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -14398,9 +14300,7 @@
       <c r="L28" t="n">
         <v>38630</v>
       </c>
-      <c r="M28" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -14439,9 +14339,7 @@
       <c r="L29" t="n">
         <v>79353</v>
       </c>
-      <c r="M29" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -14478,9 +14376,7 @@
         <v>37844</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -14517,9 +14413,7 @@
         <v>37844</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -14548,9 +14442,7 @@
         <v>76920</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14559,7 +14451,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693207</v>
+        <v>1127465.55</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -14592,7 +14484,7 @@
         <v>1157736</v>
       </c>
       <c r="M33" t="n">
-        <v>1266382</v>
+        <v>78693</v>
       </c>
     </row>
     <row r="34">
@@ -14602,7 +14494,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25674.33</v>
+        <v>37582.19</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -14635,7 +14527,7 @@
         <v>41347.71</v>
       </c>
       <c r="M34" t="n">
-        <v>40851.03</v>
+        <v>78693</v>
       </c>
     </row>
   </sheetData>
@@ -14748,7 +14640,9 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C2" t="n">
         <v>40955</v>
       </c>
@@ -14791,7 +14685,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C3" t="n">
         <v>40955</v>
       </c>
@@ -14825,16 +14721,16 @@
       <c r="O3" t="n">
         <v>69790</v>
       </c>
-      <c r="P3" t="n">
-        <v>79493</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C4" t="n">
         <v>40955</v>
       </c>
@@ -14868,9 +14764,7 @@
       <c r="O4" t="n">
         <v>69460</v>
       </c>
-      <c r="P4" t="n">
-        <v>79493</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -14913,9 +14807,7 @@
       <c r="O5" t="n">
         <v>69460</v>
       </c>
-      <c r="P5" t="n">
-        <v>79493</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -14958,9 +14850,7 @@
       <c r="O6" t="n">
         <v>23458</v>
       </c>
-      <c r="P6" t="n">
-        <v>77078</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -15003,9 +14893,7 @@
       <c r="O7" t="n">
         <v>23458</v>
       </c>
-      <c r="P7" t="n">
-        <v>27084</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -15048,9 +14936,7 @@
       <c r="O8" t="n">
         <v>23458</v>
       </c>
-      <c r="P8" t="n">
-        <v>27084</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -15093,9 +14979,7 @@
       <c r="O9" t="n">
         <v>23458</v>
       </c>
-      <c r="P9" t="n">
-        <v>36625</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -15138,9 +15022,7 @@
       <c r="O10" t="n">
         <v>24194</v>
       </c>
-      <c r="P10" t="n">
-        <v>31525</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -15183,9 +15065,7 @@
       <c r="O11" t="n">
         <v>21370</v>
       </c>
-      <c r="P11" t="n">
-        <v>30289</v>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -15228,9 +15108,7 @@
       <c r="O12" t="n">
         <v>21370</v>
       </c>
-      <c r="P12" t="n">
-        <v>29625</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -15273,9 +15151,7 @@
       <c r="O13" t="n">
         <v>19370</v>
       </c>
-      <c r="P13" t="n">
-        <v>29465</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -15318,9 +15194,7 @@
       <c r="O14" t="n">
         <v>20270</v>
       </c>
-      <c r="P14" t="n">
-        <v>32865</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -15363,9 +15237,7 @@
       <c r="O15" t="n">
         <v>25299</v>
       </c>
-      <c r="P15" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -15408,9 +15280,7 @@
       <c r="O16" t="n">
         <v>25299</v>
       </c>
-      <c r="P16" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -15453,9 +15323,7 @@
       <c r="O17" t="n">
         <v>26736</v>
       </c>
-      <c r="P17" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -15498,9 +15366,7 @@
       <c r="O18" t="n">
         <v>24999</v>
       </c>
-      <c r="P18" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -15543,9 +15409,7 @@
       <c r="O19" t="n">
         <v>54859</v>
       </c>
-      <c r="P19" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -15588,9 +15452,7 @@
       <c r="O20" t="n">
         <v>55409</v>
       </c>
-      <c r="P20" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -15633,9 +15495,7 @@
       <c r="O21" t="n">
         <v>54949</v>
       </c>
-      <c r="P21" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -15678,9 +15538,7 @@
       <c r="O22" t="n">
         <v>57928</v>
       </c>
-      <c r="P22" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -15723,9 +15581,7 @@
       <c r="O23" t="n">
         <v>57008</v>
       </c>
-      <c r="P23" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -15768,9 +15624,7 @@
       <c r="O24" t="n">
         <v>57008</v>
       </c>
-      <c r="P24" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -15813,9 +15667,7 @@
       <c r="O25" t="n">
         <v>37013</v>
       </c>
-      <c r="P25" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -15858,9 +15710,7 @@
       <c r="O26" t="n">
         <v>38710</v>
       </c>
-      <c r="P26" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -15903,9 +15753,7 @@
       <c r="O27" t="n">
         <v>38630</v>
       </c>
-      <c r="P27" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -15948,9 +15796,7 @@
       <c r="O28" t="n">
         <v>38630</v>
       </c>
-      <c r="P28" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -15993,9 +15839,7 @@
       <c r="O29" t="n">
         <v>79353</v>
       </c>
-      <c r="P29" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -16036,9 +15880,7 @@
         <v>37844</v>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -16079,9 +15921,7 @@
         <v>37844</v>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -16114,9 +15954,7 @@
         <v>76920</v>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
-        <v>34865</v>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -16126,7 +15964,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693207</v>
+        <v>1127465.55</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -16135,7 +15973,7 @@
         <v>1700763</v>
       </c>
       <c r="E33" t="n">
-        <v>3446331</v>
+        <v>3880589.55</v>
       </c>
       <c r="F33" t="n">
         <v>4295173</v>
@@ -16168,10 +16006,10 @@
         <v>1157736</v>
       </c>
       <c r="P33" t="n">
-        <v>1266382</v>
+        <v>78693</v>
       </c>
       <c r="Q33" t="n">
-        <v>3470061</v>
+        <v>2282372</v>
       </c>
     </row>
     <row r="34">
@@ -16181,7 +16019,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25674.33</v>
+        <v>37582.19</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -16190,7 +16028,7 @@
         <v>56692.1</v>
       </c>
       <c r="E34" t="n">
-        <v>116313.5623655914</v>
+        <v>128221.4140322581</v>
       </c>
       <c r="F34" t="n">
         <v>138553.97</v>
@@ -16223,10 +16061,10 @@
         <v>41347.71</v>
       </c>
       <c r="P34" t="n">
-        <v>40851.03</v>
+        <v>78693</v>
       </c>
       <c r="Q34" t="n">
-        <v>115938.8433179724</v>
+        <v>153780.8110599078</v>
       </c>
     </row>
   </sheetData>
@@ -16329,7 +16167,9 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C2" t="n">
         <v>40955</v>
       </c>
@@ -16370,7 +16210,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C3" t="n">
         <v>40955</v>
       </c>
@@ -16402,16 +16244,16 @@
       <c r="M3" t="n">
         <v>69790</v>
       </c>
-      <c r="N3" t="n">
-        <v>79493</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C4" t="n">
         <v>40955</v>
       </c>
@@ -16443,9 +16285,7 @@
       <c r="M4" t="n">
         <v>69460</v>
       </c>
-      <c r="N4" t="n">
-        <v>79493</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -16486,9 +16326,7 @@
       <c r="M5" t="n">
         <v>69460</v>
       </c>
-      <c r="N5" t="n">
-        <v>79493</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -16529,9 +16367,7 @@
       <c r="M6" t="n">
         <v>23458</v>
       </c>
-      <c r="N6" t="n">
-        <v>77078</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -16572,9 +16408,7 @@
       <c r="M7" t="n">
         <v>23458</v>
       </c>
-      <c r="N7" t="n">
-        <v>27084</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -16615,9 +16449,7 @@
       <c r="M8" t="n">
         <v>23458</v>
       </c>
-      <c r="N8" t="n">
-        <v>27084</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -16658,9 +16490,7 @@
       <c r="M9" t="n">
         <v>23458</v>
       </c>
-      <c r="N9" t="n">
-        <v>36625</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -16701,9 +16531,7 @@
       <c r="M10" t="n">
         <v>24194</v>
       </c>
-      <c r="N10" t="n">
-        <v>31525</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -16744,9 +16572,7 @@
       <c r="M11" t="n">
         <v>21370</v>
       </c>
-      <c r="N11" t="n">
-        <v>30289</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -16787,9 +16613,7 @@
       <c r="M12" t="n">
         <v>21370</v>
       </c>
-      <c r="N12" t="n">
-        <v>29625</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -16830,9 +16654,7 @@
       <c r="M13" t="n">
         <v>19370</v>
       </c>
-      <c r="N13" t="n">
-        <v>29465</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -16873,9 +16695,7 @@
       <c r="M14" t="n">
         <v>20270</v>
       </c>
-      <c r="N14" t="n">
-        <v>32865</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -16916,9 +16736,7 @@
       <c r="M15" t="n">
         <v>25299</v>
       </c>
-      <c r="N15" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -16959,9 +16777,7 @@
       <c r="M16" t="n">
         <v>25299</v>
       </c>
-      <c r="N16" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -17002,9 +16818,7 @@
       <c r="M17" t="n">
         <v>26736</v>
       </c>
-      <c r="N17" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -17045,9 +16859,7 @@
       <c r="M18" t="n">
         <v>24999</v>
       </c>
-      <c r="N18" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -17088,9 +16900,7 @@
       <c r="M19" t="n">
         <v>54859</v>
       </c>
-      <c r="N19" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -17131,9 +16941,7 @@
       <c r="M20" t="n">
         <v>55409</v>
       </c>
-      <c r="N20" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -17174,9 +16982,7 @@
       <c r="M21" t="n">
         <v>54949</v>
       </c>
-      <c r="N21" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -17217,9 +17023,7 @@
       <c r="M22" t="n">
         <v>57928</v>
       </c>
-      <c r="N22" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -17260,9 +17064,7 @@
       <c r="M23" t="n">
         <v>57008</v>
       </c>
-      <c r="N23" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -17303,9 +17105,7 @@
       <c r="M24" t="n">
         <v>57008</v>
       </c>
-      <c r="N24" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -17346,9 +17146,7 @@
       <c r="M25" t="n">
         <v>37013</v>
       </c>
-      <c r="N25" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -17389,9 +17187,7 @@
       <c r="M26" t="n">
         <v>38710</v>
       </c>
-      <c r="N26" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -17432,9 +17228,7 @@
       <c r="M27" t="n">
         <v>38630</v>
       </c>
-      <c r="N27" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -17475,9 +17269,7 @@
       <c r="M28" t="n">
         <v>38630</v>
       </c>
-      <c r="N28" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -17518,9 +17310,7 @@
       <c r="M29" t="n">
         <v>79353</v>
       </c>
-      <c r="N29" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -17559,9 +17349,7 @@
         <v>37844</v>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -17600,9 +17388,7 @@
         <v>37844</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -17633,9 +17419,7 @@
         <v>76920</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>34865</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -17645,7 +17429,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693207</v>
+        <v>1127465.55</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -17663,7 +17447,7 @@
         <v>135614</v>
       </c>
       <c r="H33" t="n">
-        <v>10436665</v>
+        <v>10870923.55</v>
       </c>
       <c r="I33" t="n">
         <v>1230338</v>
@@ -17681,10 +17465,10 @@
         <v>1157736</v>
       </c>
       <c r="N33" t="n">
-        <v>1266382</v>
+        <v>78693</v>
       </c>
       <c r="O33" t="n">
-        <v>9008508</v>
+        <v>7820819</v>
       </c>
     </row>
     <row r="34">
@@ -17694,7 +17478,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25674.33</v>
+        <v>37582.19</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -17712,7 +17496,7 @@
         <v>4520.47</v>
       </c>
       <c r="H34" t="n">
-        <v>341954.029032258</v>
+        <v>353861.8806989247</v>
       </c>
       <c r="I34" t="n">
         <v>39688.32</v>
@@ -17730,10 +17514,10 @@
         <v>41347.71</v>
       </c>
       <c r="N34" t="n">
-        <v>40851.03</v>
+        <v>78693</v>
       </c>
       <c r="O34" t="n">
-        <v>296768.5024577573</v>
+        <v>334610.4701996928</v>
       </c>
     </row>
   </sheetData>
@@ -17831,7 +17615,9 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C2" t="n">
         <v>40955</v>
       </c>
@@ -17871,7 +17657,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C3" t="n">
         <v>40955</v>
       </c>
@@ -17902,16 +17690,16 @@
       <c r="L3" t="n">
         <v>69790</v>
       </c>
-      <c r="M3" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>144752.85</v>
+      </c>
       <c r="C4" t="n">
         <v>40955</v>
       </c>
@@ -17942,9 +17730,7 @@
       <c r="L4" t="n">
         <v>69460</v>
       </c>
-      <c r="M4" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -17984,9 +17770,7 @@
       <c r="L5" t="n">
         <v>69460</v>
       </c>
-      <c r="M5" t="n">
-        <v>79493</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -18026,9 +17810,7 @@
       <c r="L6" t="n">
         <v>23458</v>
       </c>
-      <c r="M6" t="n">
-        <v>77078</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -18068,9 +17850,7 @@
       <c r="L7" t="n">
         <v>23458</v>
       </c>
-      <c r="M7" t="n">
-        <v>27084</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -18110,9 +17890,7 @@
       <c r="L8" t="n">
         <v>23458</v>
       </c>
-      <c r="M8" t="n">
-        <v>27084</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -18152,9 +17930,7 @@
       <c r="L9" t="n">
         <v>23458</v>
       </c>
-      <c r="M9" t="n">
-        <v>36625</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -18194,9 +17970,7 @@
       <c r="L10" t="n">
         <v>24194</v>
       </c>
-      <c r="M10" t="n">
-        <v>31525</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -18236,9 +18010,7 @@
       <c r="L11" t="n">
         <v>21370</v>
       </c>
-      <c r="M11" t="n">
-        <v>30289</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -18278,9 +18050,7 @@
       <c r="L12" t="n">
         <v>21370</v>
       </c>
-      <c r="M12" t="n">
-        <v>29625</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -18320,9 +18090,7 @@
       <c r="L13" t="n">
         <v>19370</v>
       </c>
-      <c r="M13" t="n">
-        <v>29465</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -18362,9 +18130,7 @@
       <c r="L14" t="n">
         <v>20270</v>
       </c>
-      <c r="M14" t="n">
-        <v>32865</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -18404,9 +18170,7 @@
       <c r="L15" t="n">
         <v>25299</v>
       </c>
-      <c r="M15" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -18446,9 +18210,7 @@
       <c r="L16" t="n">
         <v>25299</v>
       </c>
-      <c r="M16" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -18488,9 +18250,7 @@
       <c r="L17" t="n">
         <v>26736</v>
       </c>
-      <c r="M17" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -18530,9 +18290,7 @@
       <c r="L18" t="n">
         <v>24999</v>
       </c>
-      <c r="M18" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -18572,9 +18330,7 @@
       <c r="L19" t="n">
         <v>54859</v>
       </c>
-      <c r="M19" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -18614,9 +18370,7 @@
       <c r="L20" t="n">
         <v>55409</v>
       </c>
-      <c r="M20" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -18656,9 +18410,7 @@
       <c r="L21" t="n">
         <v>54949</v>
       </c>
-      <c r="M21" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -18698,9 +18450,7 @@
       <c r="L22" t="n">
         <v>57928</v>
       </c>
-      <c r="M22" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -18740,9 +18490,7 @@
       <c r="L23" t="n">
         <v>57008</v>
       </c>
-      <c r="M23" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -18782,9 +18530,7 @@
       <c r="L24" t="n">
         <v>57008</v>
       </c>
-      <c r="M24" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -18824,9 +18570,7 @@
       <c r="L25" t="n">
         <v>37013</v>
       </c>
-      <c r="M25" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -18866,9 +18610,7 @@
       <c r="L26" t="n">
         <v>38710</v>
       </c>
-      <c r="M26" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -18908,9 +18650,7 @@
       <c r="L27" t="n">
         <v>38630</v>
       </c>
-      <c r="M27" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -18950,9 +18690,7 @@
       <c r="L28" t="n">
         <v>38630</v>
       </c>
-      <c r="M28" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -18992,9 +18730,7 @@
       <c r="L29" t="n">
         <v>79353</v>
       </c>
-      <c r="M29" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -19032,9 +18768,7 @@
         <v>37844</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -19072,9 +18806,7 @@
         <v>37844</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -19104,9 +18836,7 @@
         <v>76920</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>34865</v>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -19116,7 +18846,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693207</v>
+        <v>1127465.55</v>
       </c>
       <c r="C33" t="n">
         <v>1052361</v>
@@ -19149,10 +18879,10 @@
         <v>1157736</v>
       </c>
       <c r="M33" t="n">
-        <v>1266382</v>
+        <v>78693</v>
       </c>
       <c r="N33" t="n">
-        <v>19445173</v>
+        <v>18691742.55</v>
       </c>
     </row>
     <row r="34">
@@ -19162,7 +18892,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25674.33</v>
+        <v>37582.19</v>
       </c>
       <c r="C34" t="n">
         <v>33947.13</v>
@@ -19195,10 +18925,10 @@
         <v>41347.71</v>
       </c>
       <c r="M34" t="n">
-        <v>40851.03</v>
+        <v>78693</v>
       </c>
       <c r="N34" t="n">
-        <v>638722.5314900154</v>
+        <v>688472.3508986175</v>
       </c>
     </row>
   </sheetData>
